--- a/results/Results_PSO_PID_Test_3.xlsx
+++ b/results/Results_PSO_PID_Test_3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:AP6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,37 +446,202 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>SettlingTime</t>
+          <t>SettlingTime_z</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Overshoot</t>
+          <t>SettlingTime_phi</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>RiseTime</t>
+          <t>SettlingTime_theta</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>SteadyError</t>
+          <t>SettlingTime_psi</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ITSE</t>
+          <t>Overshoot_z</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>IAE</t>
+          <t>Overshoot_phi</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>RMSE</t>
+          <t>Overshoot_theta</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Overshoot_psi</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>RiseTime_z</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>RiseTime_phi</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>RiseTime_theta</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>RiseTime_psi</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>SteadyError_z</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>SteadyError_phi</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>SteadyError_theta</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>SteadyError_psi</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>ITSE_z</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>ITSE_phi</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>ITSE_theta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>ITSE_psi</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>IAE_z</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>IAE_phi</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>IAE_theta</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>IAE_psi</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>RMSE_z</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>RMSE_phi</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>RMSE_theta</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>RMSE_psi</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Kp_z</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Ki_z</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Kd_z</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Kp_phi</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Ki_phi</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Kd_phi</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Kp_theta</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Ki_theta</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>Kd_theta</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>Kp_psi</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>Ki_psi</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>Kd_psi</t>
         </is>
       </c>
     </row>
@@ -485,28 +650,125 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0500930975726212</v>
+        <v>0.1834579795369132</v>
       </c>
       <c r="C2" t="n">
-        <v>1.062124248496994</v>
+        <v>2.124248496993988</v>
       </c>
       <c r="D2" t="n">
-        <v>1.873992592096463</v>
+        <v>1.222444889779559</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7214428857715431</v>
+        <v>0.5410821643286573</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02384312155670173</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.316724608725952</v>
+        <v>6.707338314300149</v>
       </c>
       <c r="H2" t="n">
-        <v>1.134049390651819</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>0.371262141011995</v>
+        <v>0.6753172784891015</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.501002004008016</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.3406813627254509</v>
+      </c>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="n">
+        <v>0.004118038591502815</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.567074586922735e-06</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.0012928498074282</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.1955249800839026</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.005551839906560451</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.0005241530530296978</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.8871369355245193</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.1083547031842853</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.05125035715837775</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.3321168963493989</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.03720662220073784</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.02316630160699127</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>1.015403181603171</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>5.421878104000832</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.09653488234353795</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>1.159788227319041</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>9.99909020991147</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.001356380579281532</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1.028619131730985</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.001753337093104683</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.4097715660745835</v>
       </c>
     </row>
     <row r="3">
@@ -514,28 +776,125 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.05047222158601786</v>
+        <v>0.1513586514130191</v>
       </c>
       <c r="C3" t="n">
-        <v>1.142284569138277</v>
+        <v>1.302605210420842</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7760744076648951</v>
+        <v>1.24248496993988</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7615230460921842</v>
+        <v>0.561122244488978</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02635456622034672</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.352930655541999</v>
+        <v>0.6576438070990731</v>
       </c>
       <c r="H3" t="n">
-        <v>1.246373866670689</v>
+        <v>100</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3758235372469932</v>
+        <v>0.5267426571466116</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.8617234468937875</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.3406813627254509</v>
+      </c>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="n">
+        <v>0.03133818790507164</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5.044367604946587e-05</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.001017949175344586</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.4494082275730191</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.003165735387781177</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.0005212648175555267</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1.394297124605062</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.09102306482976122</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.04996169976135251</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.398187249586395</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.03232463044798413</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.02349703725480036</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>8.40107214432763</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.9952070702055794</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>4.503054879479499</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.9096771588671029</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>9.429642609459625</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>1.945090379843598</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>8.812874227576545</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.04255619857731197</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.5301351417519798</v>
       </c>
     </row>
     <row r="4">
@@ -543,28 +902,125 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.09161071670002296</v>
+        <v>0.2309273070647831</v>
       </c>
       <c r="C4" t="n">
-        <v>2.104208416833667</v>
+        <v>2.244488977955912</v>
       </c>
       <c r="D4" t="n">
-        <v>6.118743519156422</v>
+        <v>1.503006012024048</v>
       </c>
       <c r="E4" t="n">
+        <v>1.282565130260521</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5.004176292761264</v>
+      </c>
+      <c r="H4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I4" t="n">
+        <v>38.97026378336277</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
         <v>0.5210420841683366</v>
       </c>
-      <c r="F4" t="n">
-        <v>0.001290139339446612</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.2154971300860757</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.9266245117199364</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.3344785988078187</v>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.1603206412825651</v>
+      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="n">
+        <v>0.02268635818621739</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.694817820015238e-05</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.22862035053628e-05</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.3208885069778269</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.001871471112711863</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.001867291652926883</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1.183503113356644</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.07426382465699383</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.07432211472412047</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.3431762755470366</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.02742486245914969</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.02578119264652396</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.9872844247953051</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.09998897130962574</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>1.237422127987989</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>9.989552965493537</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.001333135554557306</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>1.000444994081782</v>
       </c>
     </row>
     <row r="5">
@@ -572,28 +1028,125 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.08329702251989841</v>
+        <v>0.1842696170664739</v>
       </c>
       <c r="C5" t="n">
-        <v>2.004008016032064</v>
+        <v>2.124248496993988</v>
       </c>
       <c r="D5" t="n">
-        <v>4.44817932940651</v>
+        <v>1.24248496993988</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5611222444889779</v>
+        <v>0.5410821643286573</v>
       </c>
       <c r="F5" t="n">
-        <v>0.004268311080394552</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.214987140604477</v>
+        <v>6.610607854772921</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8972295488299067</v>
+        <v>100</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3417694734915999</v>
+        <v>1.536275553045752</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.501002004008016</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.3607214428857716</v>
+      </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="n">
+        <v>0.005735719657117246</v>
+      </c>
+      <c r="P5" t="n">
+        <v>7.894956209020255e-06</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.001814948615270059</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.1958861028189111</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.006001419333381853</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.0008466348417502812</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.8958036416641788</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.1116098773380338</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.06470153643800897</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.3321141355425287</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.03815048719349659</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.02594288426848554</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>1.013086883262662</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>5.565502918854422</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>1.180986756163034</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>5.189950468835993</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>1.231440978666496</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>5.079788984312523</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.09940371182867286</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>1.371117164398095</v>
       </c>
     </row>
     <row r="6">
@@ -601,28 +1154,125 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.05886554642726913</v>
+        <v>0.1704562334637462</v>
       </c>
       <c r="C6" t="n">
-        <v>1.362725450901804</v>
+        <v>1.162324649298597</v>
       </c>
       <c r="D6" t="n">
-        <v>0.746292269454818</v>
+        <v>2.705410821643286</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8817635270541082</v>
+        <v>0.5210420841683366</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02230675171335826</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4669377932148348</v>
+        <v>0.5855622271775829</v>
       </c>
       <c r="H6" t="n">
-        <v>1.387715491899124</v>
+        <v>100</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4067189347892025</v>
+        <v>1.490978888769118</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.7615230460921842</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.3406813627254509</v>
+      </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="n">
+        <v>0.03180522034085796</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.762907394047998e-05</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.001580811667769944</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.3664111246308134</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.002694183292732895</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.0007520024917887812</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1.277071962014879</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.09923575104504558</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.06083133517312192</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.3764350825533381</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.02708532647449042</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.02539733689066198</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>10.39986149856195</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.9885703307893454</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>5.662706601196644</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>1.282087411268874</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>2.904837286182456</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.01959185388114836</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
